--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f410_bc_chi_phi_theo_phap_nhan.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f410_bc_chi_phi_theo_phap_nhan.xlsx
@@ -34,13 +34,13 @@
     <t>Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                Trạng thái:    &lt;trang_thai&gt;</t>
-  </si>
-  <si>
     <t>BÁO CÁO TỔNG  HỢP CHI PHÍ THEO PHÁP NHÂN</t>
   </si>
   <si>
     <t>Pháp nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:F1048576"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -507,9 +507,9 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
